--- a/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3867B-9918-4A32-9F05-D530AF4E40A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="FPVD" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>FPVD</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,84 +654,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43677</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43585</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43496</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43404</v>
+      </c>
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -775,16 +763,34 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,22 +821,40 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -839,16 +863,34 @@
         <v>-100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,8 +903,14 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +941,26 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,19 +991,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -957,8 +1041,26 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -989,8 +1091,26 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,22 +1120,28 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1024,30 +1150,48 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1056,16 +1200,34 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,72 +1240,114 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-200</v>
-      </c>
       <c r="H20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1174,40 +1378,76 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,8 +1478,26 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1528,126 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,8 +1678,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1398,8 +1728,26 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1778,26 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,72 +1828,126 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1978,131 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43677</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43585</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43496</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43404</v>
+      </c>
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +2115,14 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,8 +2135,14 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1667,28 +2153,46 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1719,8 +2223,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1751,28 +2273,46 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -1783,8 +2323,26 @@
       <c r="L44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1815,40 +2373,76 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,19 +2473,37 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -1900,19 +2512,37 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,8 +2573,26 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2623,26 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,8 +2673,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2039,8 +2723,26 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,40 +2773,76 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2855,14 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,72 +2875,114 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
       </c>
       <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2209,58 +2995,94 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>800</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
+        <v>600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2291,8 +3113,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2305,26 +3145,44 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +3213,26 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +3263,26 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,40 +3313,76 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>700</v>
+      </c>
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +3395,14 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +3433,26 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +3483,26 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +3533,26 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +3583,76 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
         <v>-4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>-3800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>-3600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="R72" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +3683,26 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +3733,26 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,40 +3783,76 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +3883,131 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43677</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43585</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43496</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43404</v>
+      </c>
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,8 +4020,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2900,8 +4058,26 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +4108,26 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +4158,26 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +4208,26 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +4258,26 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,8 +4308,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3069,31 +4335,49 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,13 +4390,19 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3138,8 +4428,26 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +4478,26 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,19 +4528,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3234,8 +4578,26 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,8 +4610,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3280,8 +4648,26 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +4698,26 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +4748,26 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,8 +4798,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3385,31 +4825,49 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3440,8 +4898,26 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3449,27 +4925,45 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>FPVD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -772,13 +779,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -789,8 +796,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,14 +823,14 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -828,19 +841,25 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,37 +879,43 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,25 +1042,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1144,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1168,7 +1221,7 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1176,8 +1229,14 @@
       <c r="R17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1194,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1209,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
@@ -1226,8 +1285,14 @@
       <c r="R18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1279,25 +1346,31 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,46 +1381,52 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,13 +1475,19 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1411,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1426,28 +1511,34 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,13 +1643,19 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1561,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1576,33 +1679,39 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1611,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1626,28 +1735,34 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1879,30 +2018,36 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1911,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1926,28 +2071,34 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,13 +2147,19 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2011,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2026,83 +2183,95 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2312,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2171,28 +2344,34 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,19 +2476,25 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2315,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2341,8 +2532,14 @@
       <c r="R44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2415,34 +2618,40 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,13 +2700,19 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2512,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2524,10 +2739,10 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2541,8 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,13 +2924,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +3036,14 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2809,22 +3060,22 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
@@ -2833,16 +3084,22 @@
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,13 +3140,15 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2896,19 +3157,19 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2926,13 +3187,19 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2949,45 +3216,51 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
-        <v>300</v>
-      </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3013,11 +3286,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -3031,13 +3304,19 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
@@ -3046,13 +3325,13 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>700</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -3061,28 +3340,34 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,13 +3416,19 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3163,11 +3454,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,16 +3640,22 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
@@ -3352,10 +3667,10 @@
         <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
@@ -3364,25 +3679,31 @@
         <v>600</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+      <c r="T66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,13 +3942,19 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="E72" s="3">
         <v>-4600</v>
@@ -3619,40 +3966,46 @@
         <v>-4600</v>
       </c>
       <c r="H72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,13 +4166,19 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
         <v>-700</v>
@@ -3819,40 +4190,46 @@
         <v>-700</v>
       </c>
       <c r="H76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>100</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,68 +4278,80 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3971,13 +4360,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3986,28 +4375,34 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4421,15 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4353,13 +4786,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4374,10 +4807,16 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4560,11 +5019,11 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -4596,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4843,10 +5334,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -4855,19 +5346,25 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>300</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4943,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4952,18 +5455,24 @@
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>200</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>FPVD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,11 +836,11 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
@@ -847,19 +854,22 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,37 +895,40 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,13 +1205,14 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1203,28 +1230,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1259,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1334,31 +1368,31 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
       </c>
       <c r="P20" s="3">
         <v>-200</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1367,10 +1401,13 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,52 +1418,55 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1533,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1502,43 +1545,46 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
       </c>
       <c r="R23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1710,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1670,43 +1722,46 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
       </c>
       <c r="R26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,7 +1769,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1726,43 +1781,46 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2006,31 +2076,31 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
       </c>
       <c r="P32" s="3">
         <v>200</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2039,10 +2109,13 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2123,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2062,43 +2135,46 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,7 +2241,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2174,104 +2253,110 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2400,14 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2350,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2359,19 +2446,22 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2512,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,13 +2693,16 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2624,34 +2726,37 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,16 +2811,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2733,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2745,7 +2853,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3047,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3165,16 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3066,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
@@ -3090,16 +3216,19 @@
         <v>300</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,16 +3272,17 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3163,16 +3294,16 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3193,18 +3324,21 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -3222,7 +3356,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -3231,39 +3365,42 @@
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3292,8 +3429,8 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -3310,16 +3447,19 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
@@ -3331,10 +3471,10 @@
         <v>700</v>
       </c>
       <c r="I60" s="3">
+        <v>700</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -3346,19 +3486,19 @@
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
@@ -3366,13 +3506,16 @@
       <c r="T60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3422,16 +3565,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3460,8 +3606,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,34 +3801,37 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -3685,16 +3843,16 @@
         <v>600</v>
       </c>
       <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,16 +4119,19 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-4600</v>
       </c>
       <c r="F72" s="3">
         <v>-4600</v>
@@ -3972,40 +4146,43 @@
         <v>-4600</v>
       </c>
       <c r="J72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4355,19 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-700</v>
@@ -4196,40 +4382,43 @@
         <v>-700</v>
       </c>
       <c r="J76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K76" s="3">
         <v>-600</v>
       </c>
       <c r="L76" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,7 +4549,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4366,43 +4561,46 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4621,17 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +4973,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4792,31 +5009,34 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5025,8 +5255,8 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5550,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5340,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -5352,19 +5598,22 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,13 +5668,16 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5452,27 +5704,30 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>FPVD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,102 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -783,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -809,13 +813,16 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -839,11 +846,11 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
@@ -857,24 +864,27 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>1400</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -898,37 +908,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,13 +1085,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1083,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1127,31 +1147,34 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,17 +1232,18 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1233,28 +1260,28 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1265,16 +1292,19 @@
       <c r="U17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-8400</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1292,28 +1322,28 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1380,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1371,31 +1405,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-200</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
@@ -1404,74 +1438,80 @@
         <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-7400</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-300</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1524,19 +1564,22 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-15300</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1548,66 +1591,69 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,19 +1750,22 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-15300</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1725,54 +1777,57 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-15300</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1784,43 +1839,46 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2122,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2079,31 +2149,31 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>200</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
@@ -2112,21 +2182,24 @@
         <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-15300</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2138,43 +2211,46 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,19 +2308,22 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-15300</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2256,107 +2335,113 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,17 +2487,18 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2440,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2449,19 +2536,22 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,13 +2609,16 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2611,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2637,31 +2733,34 @@
       <c r="U44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2696,17 +2795,20 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2729,34 +2831,37 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,19 +2919,22 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2844,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2856,7 +2964,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2873,31 +2981,34 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>6400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3061,8 +3181,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,17 +3291,20 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -3195,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
@@ -3219,16 +3345,19 @@
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,19 +3403,20 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3297,16 +3428,16 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3327,21 +3458,24 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3359,7 +3493,7 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
@@ -3368,42 +3502,45 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3432,8 +3569,8 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3450,19 +3587,22 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
@@ -3474,10 +3614,10 @@
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -3489,19 +3629,19 @@
         <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>300</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
@@ -3509,17 +3649,20 @@
       <c r="U60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,8 +3725,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3609,8 +3755,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,37 +3959,40 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
       </c>
       <c r="H66" s="3">
+        <v>700</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
@@ -3846,16 +4004,16 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,19 +4293,22 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-4600</v>
       </c>
       <c r="G72" s="3">
         <v>-4600</v>
@@ -4149,40 +4323,43 @@
         <v>-4600</v>
       </c>
       <c r="K72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-4500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,19 +4541,22 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
@@ -4385,40 +4571,43 @@
         <v>-700</v>
       </c>
       <c r="K76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L76" s="3">
         <v>-600</v>
       </c>
       <c r="M76" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,83 +4665,89 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-15300</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -4564,43 +4759,46 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4633,8 +4832,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,17 +5190,20 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -5012,31 +5229,34 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5258,8 +5488,8 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,17 +5796,20 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5589,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -5601,19 +5847,22 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,17 +5920,20 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5707,27 +5959,30 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>FPVD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,117 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -790,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -799,13 +807,13 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -816,20 +824,26 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
@@ -849,14 +863,14 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -867,31 +881,37 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -911,37 +931,43 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +990,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1054,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,37 +1122,43 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1150,20 +1190,26 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1176,11 +1222,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1212,8 +1258,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,23 +1285,25 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>10600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1263,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1287,7 +1341,7 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1295,23 +1349,29 @@
       <c r="V17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1325,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1340,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
@@ -1357,8 +1417,14 @@
       <c r="V18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,20 +1447,22 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1408,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1426,99 +1494,111 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>7400</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1567,26 +1647,32 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1594,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1609,39 +1695,45 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1655,11 +1747,11 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1691,8 +1783,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,26 +1851,32 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1780,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1795,46 +1899,52 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1842,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1857,28 +1967,34 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2123,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,20 +2259,26 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2152,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2170,43 +2310,49 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -2214,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2229,28 +2375,34 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,26 +2463,32 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2338,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2353,95 +2511,107 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,23 +2660,25 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2530,28 +2704,34 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,20 +2792,26 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2674,8 +2860,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2710,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2736,19 +2928,25 @@
       <c r="V44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2762,11 +2960,11 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2798,23 +2996,29 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2834,34 +3038,40 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,25 +3132,31 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2955,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2967,10 +3183,10 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2984,20 +3200,26 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F49" s="3">
         <v>6400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3010,11 +3232,11 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3046,8 +3268,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,19 +3404,25 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3232,8 +3472,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,23 +3540,29 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F54" s="3">
         <v>7600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3324,22 +3576,22 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
@@ -3348,16 +3600,22 @@
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,25 +3664,27 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3431,19 +3693,19 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3461,27 +3723,33 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -3496,57 +3764,63 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
-        <v>300</v>
-      </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3572,11 +3846,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
@@ -3590,25 +3864,31 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
@@ -3617,13 +3897,13 @@
         <v>700</v>
       </c>
       <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>700</v>
+      </c>
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -3632,28 +3912,34 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+      <c r="X60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,14 +3947,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3714,19 +4000,25 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3758,11 +4050,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3776,8 +4068,14 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,28 +4272,34 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
@@ -3995,10 +4311,10 @@
         <v>700</v>
       </c>
       <c r="M66" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
@@ -4007,25 +4323,31 @@
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
+        <v>600</v>
+      </c>
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>300</v>
+      </c>
+      <c r="X66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,16 +4502,22 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,25 +4638,31 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-36600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-4600</v>
       </c>
       <c r="I72" s="3">
         <v>-4600</v>
@@ -4326,40 +4674,46 @@
         <v>-4600</v>
       </c>
       <c r="L72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="N72" s="3">
         <v>-4500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,25 +4910,31 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F76" s="3">
         <v>6300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
@@ -4574,40 +4946,46 @@
         <v>-700</v>
       </c>
       <c r="L76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>100</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,93 +5046,105 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4762,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -4777,28 +5167,34 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,25 +5217,27 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4883,8 +5281,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,23 +5621,29 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -5232,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -5253,10 +5687,16 @@
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5719,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5783,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,16 +5919,22 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -5491,11 +5951,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5527,8 +5987,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,23 +6285,29 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5838,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5850,19 +6342,25 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>300</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>300</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,23 +6421,29 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5962,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5971,18 +6475,24 @@
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>200</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FPVD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>FPVD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,14 +775,14 @@
         <v>800</v>
       </c>
       <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -804,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -830,8 +834,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,14 +846,14 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -869,11 +876,11 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
@@ -887,19 +894,22 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,11 +920,11 @@
         <v>600</v>
       </c>
       <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -937,37 +947,40 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,8 +1162,8 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1152,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,11 +1231,11 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1228,8 +1251,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,8 +1313,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1296,17 +1323,17 @@
         <v>2800</v>
       </c>
       <c r="E17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1323,28 +1350,28 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
@@ -1355,8 +1382,11 @@
       <c r="X17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,17 +1394,17 @@
         <v>-2000</v>
       </c>
       <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1391,28 +1421,28 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
@@ -1423,8 +1453,11 @@
       <c r="X18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1482,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1461,11 +1495,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1482,31 +1516,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
       </c>
       <c r="T20" s="3">
         <v>-200</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
@@ -1515,93 +1549,99 @@
         <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-300</v>
       </c>
       <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1653,28 +1693,31 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1686,48 +1729,51 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-400</v>
       </c>
       <c r="U23" s="3">
         <v>-400</v>
       </c>
       <c r="V23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1735,8 +1781,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1753,8 +1799,8 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1789,8 +1835,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,28 +1906,31 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1890,43 +1942,46 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-400</v>
       </c>
       <c r="U26" s="3">
         <v>-400</v>
       </c>
       <c r="V26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,19 +1989,19 @@
         <v>-2100</v>
       </c>
       <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1958,43 +2013,46 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>-400</v>
       </c>
       <c r="V27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,8 +2332,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2277,11 +2347,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2298,31 +2368,31 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>200</v>
       </c>
       <c r="T32" s="3">
         <v>200</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
@@ -2331,10 +2401,13 @@
         <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2342,19 +2415,19 @@
         <v>-2100</v>
       </c>
       <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -2366,43 +2439,46 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>-400</v>
       </c>
       <c r="V33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,8 +2545,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2478,19 +2557,19 @@
         <v>-2100</v>
       </c>
       <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -2502,116 +2581,122 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>-400</v>
       </c>
       <c r="V35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,26 +2748,27 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2710,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -2719,19 +2806,22 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,23 +2888,26 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +2959,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2908,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2934,22 +3030,25 @@
       <c r="X44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2966,8 +3065,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3002,26 +3101,29 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -3044,34 +3146,37 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,8 +3243,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,14 +3260,14 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3177,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3189,7 +3297,7 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3206,23 +3314,26 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3238,8 +3349,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,26 +3669,29 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E54" s="3">
         <v>9800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3582,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
@@ -3606,16 +3732,19 @@
         <v>300</v>
       </c>
       <c r="V54" s="3">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,28 +3796,29 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3699,16 +3830,16 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3729,13 +3860,16 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,11 +3882,11 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -3770,7 +3904,7 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
@@ -3779,31 +3913,34 @@
         <v>400</v>
       </c>
       <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+      <c r="R58" s="3">
         <v>500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>400</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
       <c r="T58" s="3">
+        <v>400</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
       <c r="X58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3811,19 +3948,19 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3852,8 +3989,8 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -3870,28 +4007,31 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
@@ -3903,10 +4043,10 @@
         <v>700</v>
       </c>
       <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
@@ -3918,19 +4058,19 @@
         <v>600</v>
       </c>
       <c r="R60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
+        <v>500</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>300</v>
@@ -3938,8 +4078,11 @@
       <c r="X60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3953,11 +4096,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4006,8 +4149,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4056,8 +4202,8 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4074,8 +4220,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,46 +4433,49 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
       </c>
       <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
@@ -4329,16 +4487,16 @@
         <v>600</v>
       </c>
       <c r="S66" s="3">
+        <v>600</v>
+      </c>
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>300</v>
       </c>
       <c r="W66" s="3">
         <v>300</v>
@@ -4346,8 +4504,11 @@
       <c r="X66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4517,11 +4685,11 @@
         <v>1900</v>
       </c>
       <c r="E70" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F70" s="3">
         <v>6600</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,28 +4815,31 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-43900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-4600</v>
       </c>
       <c r="J72" s="3">
         <v>-4600</v>
@@ -4680,40 +4854,43 @@
         <v>-4600</v>
       </c>
       <c r="N72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="O72" s="3">
         <v>-4500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,28 +5099,31 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-700</v>
       </c>
       <c r="J76" s="3">
         <v>-700</v>
@@ -4952,40 +5138,43 @@
         <v>-700</v>
       </c>
       <c r="N76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="O76" s="3">
         <v>-600</v>
       </c>
       <c r="P76" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
       </c>
       <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
       <c r="X76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,81 +5241,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5134,19 +5329,19 @@
         <v>-2100</v>
       </c>
       <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -5158,43 +5353,46 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>-400</v>
       </c>
       <c r="V81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5417,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,8 +5429,8 @@
       <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>100</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -5239,8 +5438,8 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5287,8 +5486,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,26 +5841,29 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -5672,31 +5889,34 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,31 +5941,32 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5789,8 +6010,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6152,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5934,11 +6164,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5957,8 +6187,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5993,8 +6223,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,8 +6534,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6300,17 +6546,17 @@
         <v>-300</v>
       </c>
       <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
         <v>5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6336,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -6348,19 +6594,22 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,26 +6676,29 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6472,27 +6724,30 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>
